--- a/Excel/Formula Excel Template.xlsx
+++ b/Excel/Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC1A7586-3D31-4B91-B02B-64ECD3BE082A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Concatenate" sheetId="1" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,14 +37,41 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="89">
+  <si>
+    <t>EmployeeID</t>
+  </si>
   <si>
     <t>FirstName</t>
   </si>
@@ -52,269 +79,269 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>Jim</t>
   </si>
   <si>
     <t>Halpert</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
     <t>Pam</t>
   </si>
   <si>
     <t>Beasley</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
     <t>Dwight</t>
   </si>
   <si>
     <t>Schrute</t>
   </si>
   <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Flenderson</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
     <t>Scott</t>
   </si>
   <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Supplier Relations</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
     <t>Kevin</t>
   </si>
   <si>
     <t>Malone</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Toby</t>
-  </si>
-  <si>
-    <t>Flenderson</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>Hudson</t>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>LEN(B2)</t>
+  </si>
+  <si>
+    <t>Can be used to see difference between 100s and thousands. Can find bad Social Security numbers if they're 10 digits instead of 9</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>11/2/2001</t>
+  </si>
+  <si>
+    <t>9/6/2015</t>
+  </si>
+  <si>
+    <t>Jim.Halpert@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>10/3/1999</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Pam.Beasley@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>7/4/2000</t>
+  </si>
+  <si>
+    <t>9/8/2017</t>
+  </si>
+  <si>
+    <t>Dwight.Schrute@AOL.com</t>
+  </si>
+  <si>
+    <t>1/5/2000</t>
+  </si>
+  <si>
+    <t>12/3/2015</t>
+  </si>
+  <si>
+    <t>Angela.Martin@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>5/6/2001</t>
+  </si>
+  <si>
+    <t>8/30/2017</t>
+  </si>
+  <si>
+    <t>Toby.Flenderson@DunderMifflinCorporate.com</t>
+  </si>
+  <si>
+    <t>9/11/2013</t>
+  </si>
+  <si>
+    <t>Michael.Scott@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>11/8/2003</t>
+  </si>
+  <si>
+    <t>Meredith.Palmer@Yahoo.com</t>
+  </si>
+  <si>
+    <t>6/9/2002</t>
+  </si>
+  <si>
+    <t>4/22/2015</t>
+  </si>
+  <si>
+    <t>Stanley.Hudson@gmail.com</t>
+  </si>
+  <si>
+    <t>8/10/2003</t>
+  </si>
+  <si>
+    <t>Kevin.Malone@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>TEXT(H2,"dd/mm/yyyy")</t>
+  </si>
+  <si>
+    <t>=TESTO(H2;"dd/mm/yyyy")</t>
+  </si>
+  <si>
+    <t>TRIM(C2)</t>
+  </si>
+  <si>
+    <t>It just removes unwanted spaces on both sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schrute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flenderson    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hudson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malone </t>
+  </si>
+  <si>
+    <t>with 1 instance</t>
+  </si>
+  <si>
+    <t>with 2 instances</t>
+  </si>
+  <si>
+    <t>with NO instances</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTIF</t>
+  </si>
+  <si>
+    <t>COUNTIFS</t>
   </si>
   <si>
     <t>CONCATENATE(B2," ",C2)</t>
   </si>
   <si>
-    <t>LEN(B2)</t>
-  </si>
-  <si>
-    <t>EmployeeID</t>
-  </si>
-  <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Salesman</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Receptionist</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Regional Manager</t>
-  </si>
-  <si>
-    <t>Supplier Relations</t>
-  </si>
-  <si>
-    <t>Meredith</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
-    <t>Can be used to see difference between 100s and thousands. Can find bad Social Security numbers if they're 10 digits instead of 9</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Jim.Halpert@DunderMifflin.com</t>
-  </si>
-  <si>
-    <t>Pam.Beasley@DunderMifflin.com</t>
-  </si>
-  <si>
-    <t>Dwight.Schrute@AOL.com</t>
-  </si>
-  <si>
-    <t>Angela.Martin@DunderMifflin.com</t>
-  </si>
-  <si>
-    <t>Toby.Flenderson@DunderMifflinCorporate.com</t>
-  </si>
-  <si>
-    <t>Michael.Scott@DunderMifflin.com</t>
-  </si>
-  <si>
-    <t>Meredith.Palmer@Yahoo.com</t>
-  </si>
-  <si>
-    <t>Stanley.Hudson@gmail.com</t>
-  </si>
-  <si>
-    <t>Kevin.Malone@DunderMifflin.com</t>
-  </si>
-  <si>
-    <t>11/2/2001</t>
-  </si>
-  <si>
-    <t>10/3/1999</t>
-  </si>
-  <si>
-    <t>7/4/2000</t>
-  </si>
-  <si>
-    <t>1/5/2000</t>
-  </si>
-  <si>
-    <t>5/6/2001</t>
-  </si>
-  <si>
-    <t>11/8/2003</t>
-  </si>
-  <si>
-    <t>6/9/2002</t>
-  </si>
-  <si>
-    <t>8/10/2003</t>
-  </si>
-  <si>
-    <t>9/6/2015</t>
-  </si>
-  <si>
-    <t>10/10/2015</t>
-  </si>
-  <si>
-    <t>9/8/2017</t>
-  </si>
-  <si>
-    <t>12/3/2015</t>
-  </si>
-  <si>
-    <t>8/30/2017</t>
-  </si>
-  <si>
-    <t>9/11/2013</t>
-  </si>
-  <si>
-    <t>4/22/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Hudson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flenderson    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schrute</t>
-  </si>
-  <si>
-    <t>TRIM(C2)</t>
-  </si>
-  <si>
-    <t>It just removes unwanted spaces on both sides</t>
-  </si>
-  <si>
-    <t>TEXT(H2,"dd/mm/yyyy")</t>
-  </si>
-  <si>
-    <t>with 1 instance</t>
-  </si>
-  <si>
-    <t>with 2 instances</t>
-  </si>
-  <si>
-    <t>with NO instances</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>SUMIF</t>
-  </si>
-  <si>
-    <t>SUMIFS</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>COUNTIF</t>
-  </si>
-  <si>
-    <t>COUNTIFS</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>IFS</t>
-  </si>
-  <si>
     <t>DAYS</t>
   </si>
   <si>
     <t>NETWORKDAYS</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,11 +379,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,69 +700,71 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -746,27 +775,33 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <f>MAX(H2:H10)</f>
+        <v>37933</v>
+      </c>
+      <c r="K2" s="1">
+        <f>MIN(H2:H10)</f>
+        <v>35040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -777,27 +812,33 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f>MAX(G2:G10)</f>
+        <v>65000</v>
+      </c>
+      <c r="K3">
+        <f>MIN(G2:G10)</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -809,24 +850,24 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -838,24 +879,24 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -867,24 +908,24 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -896,21 +937,21 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -925,24 +966,24 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -954,24 +995,24 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -993,72 +1034,76 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -1069,25 +1114,33 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>CONCATENATE(B2," ",C2)</f>
+        <v>Jim Halpert</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(B2,".",C2,"@gmail.com")</f>
+        <v>Jim.Halpert@gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -1098,25 +1151,33 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">CONCATENATE(B3," ",C3)</f>
+        <v>Pam Beasley</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="1">CONCATENATE(B3,".",C3,"@gmail.com")</f>
+        <v>Pam.Beasley@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -1127,25 +1188,33 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight Schrute</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dwight.Schrute@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -1156,25 +1225,33 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Martin</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>Angela.Martin@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -1185,25 +1262,33 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toby Flenderson</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>Toby.Flenderson@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -1214,22 +1299,30 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Scott</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael.Scott@gmail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1243,25 +1336,33 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith Palmer</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>Meredith.Palmer@gmail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -1272,25 +1373,33 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley Hudson</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>Stanley.Hudson@gmail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -1301,16 +1410,24 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin Malone</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin.Malone@gmail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="H11" t="str">
-        <f t="shared" ref="H3:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H3:H12" si="2">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1326,310 +1443,383 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.DAYS(I2,H2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2,I2)</f>
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(I3,H3)</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(H3,I3)</f>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
+        <v>23</v>
+      </c>
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2">
+        <v>29</v>
+      </c>
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2">
+        <v>23</v>
+      </c>
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
@@ -1644,70 +1834,71 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -1718,25 +1909,29 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>IF(D2 &gt; 30,"Old","Young")</f>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -1747,25 +1942,29 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">IF(D3 &gt; 30,"Old","Young")</f>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -1776,25 +1975,29 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -1805,25 +2008,29 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -1834,25 +2041,29 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -1863,22 +2074,26 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1892,25 +2107,29 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -1921,25 +2140,29 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -1949,6 +2172,10 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
       </c>
     </row>
   </sheetData>
@@ -1961,70 +2188,70 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -2035,25 +2262,29 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J11">LEN(B2:B11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -2064,25 +2295,28 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -2093,25 +2327,28 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -2122,25 +2359,28 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -2151,25 +2391,28 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -2180,22 +2423,25 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -2209,25 +2455,28 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -2238,25 +2487,28 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -2266,6 +2518,14 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2280,264 +2540,321 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="14.45"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>56</v>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">LEFT(B2:B10,3)</f>
+        <v>Jim</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">RIGHT(A2:A10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">RIGHT(H2:H10,4)</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Dwi</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>59</v>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Ang</v>
+      </c>
+      <c r="L5" t="str">
+        <v>4</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>60</v>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Tob</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>61</v>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Mic</v>
+      </c>
+      <c r="L7" t="str">
+        <v>6</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -2545,78 +2862,105 @@
       <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Mer</v>
+      </c>
+      <c r="L8" t="str">
+        <v>7</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Sta</v>
+      </c>
+      <c r="L9" t="str">
+        <v>8</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Kev</v>
+      </c>
+      <c r="L10" t="str">
+        <v>9</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
@@ -2631,66 +2975,66 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -2701,26 +3045,29 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -2731,26 +3078,27 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -2761,26 +3109,26 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -2791,26 +3139,26 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -2821,26 +3169,26 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -2851,23 +3199,23 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -2881,26 +3229,26 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -2911,26 +3259,26 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -2941,13 +3289,13 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
+    <row r="13" spans="1:11">
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,68 +3310,68 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -3034,25 +3382,29 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="e" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">_xludf.TRIM(C2:C10)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -3064,24 +3416,24 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -3093,24 +3445,24 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -3122,24 +3474,24 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>66</v>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -3151,24 +3503,24 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -3180,21 +3532,21 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -3209,24 +3561,24 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -3238,24 +3590,24 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -3280,350 +3632,458 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
+        <v>14</v>
+      </c>
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(H2,"/","-",1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(H2,"/","-",2)</f>
+        <v>11/2-2001</v>
+      </c>
+      <c r="L2" t="str">
+        <f>SUBSTITUTE(J2,"/","-")</f>
+        <v>11-2-2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">SUBSTITUTE(H3,"/","-",1)</f>
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="1">SUBSTITUTE(H3,"/","-",2)</f>
+        <v>10/3-1999</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="J3:L10" si="2">SUBSTITUTE(J3,"/","-")</f>
+        <v>10-3-1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>7/4-2000</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>7-4-2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
+        <v>23</v>
+      </c>
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>1/5-2000</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>1-5-2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>5/6-2001</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>5-6-2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2">
+        <v>29</v>
+      </c>
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>5/6-2001</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>5-6-2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>11/8-2003</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>11-8-2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>6/9-2002</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>6-9-2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2">
+        <v>23</v>
+      </c>
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>8/10-2003</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>8-10-2003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3638,68 +4098,68 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -3710,25 +4170,37 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10,E2:E10,"Female")</f>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -3740,24 +4212,24 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -3769,24 +4241,24 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -3798,24 +4270,24 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -3827,24 +4299,24 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -3856,21 +4328,21 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -3885,24 +4357,24 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -3914,24 +4386,24 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
@@ -3956,71 +4428,71 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>45000</v>
@@ -4031,25 +4503,37 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>COUNTA(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G10,"&gt;40000")</f>
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(A2:A10,"&gt;1000",E2:E10, "Male")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -4061,24 +4545,24 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>63000</v>
@@ -4090,24 +4574,24 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>47000</v>
@@ -4119,24 +4603,24 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6">
         <v>50000</v>
@@ -4148,24 +4632,24 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>65000</v>
@@ -4177,21 +4661,21 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -4206,24 +4690,24 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>48000</v>
@@ -4235,24 +4719,24 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>42000</v>
